--- a/output/kossutha/2018/sheets/year_2018.xlsx
+++ b/output/kossutha/2018/sheets/year_2018.xlsx
@@ -481,146 +481,124 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24.43225806451613</v>
+        <v>41.72514346881661</v>
       </c>
       <c r="C2" t="n">
-        <v>12.01612903225806</v>
+        <v>38.48463546328831</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>32.46428571428572</v>
+        <v>42.42207405037061</v>
       </c>
       <c r="C3" t="n">
-        <v>10.24642857142857</v>
+        <v>36.71848083383303</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.44516129032258</v>
+        <v>43.21115978584594</v>
       </c>
       <c r="C4" t="n">
-        <v>16.77741935483871</v>
+        <v>40.07590731707917</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>40.25333333333333</v>
+        <v>52.56089736656761</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>45.55432878753156</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.39677419354839</v>
+        <v>42.91914245264756</v>
       </c>
       <c r="C6" t="n">
-        <v>7.100000000000001</v>
+        <v>36.72440010392442</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35.65</v>
+        <v>44.02520710109854</v>
       </c>
       <c r="C7" t="n">
-        <v>25.33666666666667</v>
+        <v>38.38275105001144</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.50645161290323</v>
+        <v>43.26391047113532</v>
       </c>
       <c r="C8" t="n">
-        <v>26.03548387096774</v>
+        <v>37.80573768162816</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.84516129032258</v>
+        <v>41.80852090641737</v>
       </c>
       <c r="C9" t="n">
-        <v>16.58064516129032</v>
+        <v>37.41270179332054</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.86</v>
+        <v>46.67717000436611</v>
       </c>
       <c r="C10" t="n">
-        <v>23.47666666666667</v>
+        <v>43.25910903709942</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.60967741935484</v>
+        <v>47.25073196451611</v>
       </c>
       <c r="C11" t="n">
-        <v>15.89032258064516</v>
+        <v>42.74515121210995</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.30333333333333</v>
+        <v>42.12602891719004</v>
       </c>
       <c r="C12" t="n">
-        <v>11.03</v>
+        <v>44.37882231995277</v>
       </c>
     </row>
   </sheetData>
